--- a/output/3_Regression/analysis_01/h20/table_mape_h20.xlsx
+++ b/output/3_Regression/analysis_01/h20/table_mape_h20.xlsx
@@ -513,13 +513,13 @@
         <v>2.055039705624746</v>
       </c>
       <c r="H2" t="n">
-        <v>5.200925183309237</v>
+        <v>6.076680563609067</v>
       </c>
       <c r="I2" t="n">
-        <v>6.705948921595278</v>
+        <v>2.795996664148175</v>
       </c>
       <c r="J2" t="n">
-        <v>4.202509407340036</v>
+        <v>5.001329565343902</v>
       </c>
       <c r="K2" t="n">
         <v>16.16942928866801</v>
@@ -548,13 +548,13 @@
         <v>1.849934615615845</v>
       </c>
       <c r="H3" t="n">
-        <v>4.740897024516307</v>
+        <v>5.426828657691184</v>
       </c>
       <c r="I3" t="n">
-        <v>7.451735039360671</v>
+        <v>3.527673097588213</v>
       </c>
       <c r="J3" t="n">
-        <v>2.480836641452922</v>
+        <v>5.225065372003226</v>
       </c>
       <c r="K3" t="n">
         <v>15.91760506550666</v>
@@ -583,13 +583,13 @@
         <v>1.63201530992979</v>
       </c>
       <c r="H4" t="n">
-        <v>7.224716855904769</v>
+        <v>7.486901947176205</v>
       </c>
       <c r="I4" t="n">
-        <v>9.915662301824661</v>
+        <v>5.050811836614742</v>
       </c>
       <c r="J4" t="n">
-        <v>3.566287564469293</v>
+        <v>5.299709709244302</v>
       </c>
       <c r="K4" t="n">
         <v>20.45169734095052</v>
@@ -618,13 +618,13 @@
         <v>1.88922910480022</v>
       </c>
       <c r="H5" t="n">
-        <v>4.960598018589434</v>
+        <v>5.097358340953929</v>
       </c>
       <c r="I5" t="n">
-        <v>6.279398949733998</v>
+        <v>3.398377819489423</v>
       </c>
       <c r="J5" t="n">
-        <v>2.274695347245965</v>
+        <v>2.552311490323817</v>
       </c>
       <c r="K5" t="n">
         <v>13.12320759920319</v>
@@ -653,13 +653,13 @@
         <v>1.657722159560767</v>
       </c>
       <c r="H6" t="n">
-        <v>2.898102327164531</v>
+        <v>2.771016742705861</v>
       </c>
       <c r="I6" t="n">
-        <v>3.616434966461526</v>
+        <v>1.824575949879841</v>
       </c>
       <c r="J6" t="n">
-        <v>1.132835702612112</v>
+        <v>1.334913898278745</v>
       </c>
       <c r="K6" t="n">
         <v>7.592128122271347</v>
@@ -688,13 +688,13 @@
         <v>1.355693535600717</v>
       </c>
       <c r="H7" t="n">
-        <v>1.776492559089262</v>
+        <v>1.708009708334149</v>
       </c>
       <c r="I7" t="n">
-        <v>2.160142447629504</v>
+        <v>1.099714385270247</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7651591857958465</v>
+        <v>0.9742160912984452</v>
       </c>
       <c r="K7" t="n">
         <v>4.677939658051198</v>
@@ -723,13 +723,13 @@
         <v>0.9594015203063617</v>
       </c>
       <c r="H8" t="n">
-        <v>1.224723216934471</v>
+        <v>1.173699540738756</v>
       </c>
       <c r="I8" t="n">
-        <v>1.500171190495665</v>
+        <v>0.8661980477265923</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6619445706607031</v>
+        <v>0.7956461441229163</v>
       </c>
       <c r="K8" t="n">
         <v>3.289231919756177</v>
@@ -758,13 +758,13 @@
         <v>0.7968948101923975</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9708130432855977</v>
+        <v>0.9106931814277757</v>
       </c>
       <c r="I9" t="n">
-        <v>1.150259654935609</v>
+        <v>0.7454693764937261</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6447680713744131</v>
+        <v>0.7367279836437803</v>
       </c>
       <c r="K9" t="n">
         <v>2.480144690495092</v>
@@ -793,13 +793,13 @@
         <v>0.7183947519962194</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8304734898842759</v>
+        <v>0.7757752533792701</v>
       </c>
       <c r="I10" t="n">
-        <v>1.002551255416434</v>
+        <v>0.7082578666471077</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6422051352764784</v>
+        <v>0.728137034370905</v>
       </c>
       <c r="K10" t="n">
         <v>2.121005864136536</v>
@@ -828,13 +828,13 @@
         <v>0.6972662152192814</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7784978283925524</v>
+        <v>0.7374611333534574</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8999530848398384</v>
+        <v>0.6860592848358531</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6819918868414945</v>
+        <v>0.7134103629111752</v>
       </c>
       <c r="K11" t="n">
         <v>2.060477595727175</v>
@@ -863,13 +863,13 @@
         <v>0.7044781555184606</v>
       </c>
       <c r="H12" t="n">
-        <v>0.749301390167975</v>
+        <v>0.729658289014246</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8450703400022771</v>
+        <v>0.6795891061422294</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7112524604300433</v>
+        <v>0.7108358452405841</v>
       </c>
       <c r="K12" t="n">
         <v>1.888910245514737</v>
@@ -898,13 +898,13 @@
         <v>0.7492705063457948</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7392446048943023</v>
+        <v>0.7457600340943752</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8136732883744561</v>
+        <v>0.6980515913064458</v>
       </c>
       <c r="J13" t="n">
-        <v>0.74985849368397</v>
+        <v>0.7197730932203931</v>
       </c>
       <c r="K13" t="n">
         <v>1.693795410346798</v>
